--- a/software/3D-CMCC-Forest-Model/input/AUZobelboden/doc/IP1_Soil.xlsx
+++ b/software/3D-CMCC-Forest-Model/input/AUZobelboden/doc/IP1_Soil.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="255" windowWidth="18915" windowHeight="11640"/>
@@ -11,12 +11,12 @@
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="86">
   <si>
     <t xml:space="preserve">pH </t>
   </si>
@@ -265,17 +265,26 @@
   </si>
   <si>
     <t>Total organic N %  (air dried)</t>
+  </si>
+  <si>
+    <t>Alessio</t>
+  </si>
+  <si>
+    <t>media su tutti</t>
+  </si>
+  <si>
+    <t>tot</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -305,7 +314,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -327,6 +336,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -419,7 +434,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -498,9 +513,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -513,9 +532,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -553,7 +572,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -587,7 +606,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -622,10 +640,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -798,14 +815,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J59"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="J50" sqref="J50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.28515625" bestFit="1" customWidth="1"/>
@@ -814,9 +831,10 @@
     <col min="5" max="5" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" s="27" t="s">
         <v>74</v>
       </c>
@@ -827,8 +845,11 @@
       <c r="F1" s="27"/>
       <c r="G1" s="27"/>
       <c r="H1" s="27"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L1" s="38" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="C2" t="s">
         <v>1</v>
       </c>
@@ -848,7 +869,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -872,7 +893,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
         <v>76</v>
       </c>
@@ -896,7 +917,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12">
       <c r="A5" s="26" t="s">
         <v>3</v>
       </c>
@@ -921,8 +942,12 @@
       <c r="H5" s="11">
         <v>2.2569256072745909</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L5" s="39">
+        <f>AVERAGE(D5:H5)</f>
+        <v>2.919803145826152</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="26"/>
       <c r="B6" s="2" t="s">
         <v>13</v>
@@ -945,8 +970,12 @@
       <c r="H6" s="11">
         <v>54.845263605050626</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L6" s="39">
+        <f>AVERAGE(D6:H6)</f>
+        <v>59.78243522940916</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="26"/>
       <c r="B7" s="2" t="s">
         <v>12</v>
@@ -969,8 +998,12 @@
       <c r="H7" s="11">
         <v>42.897810787674786</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L7" s="39">
+        <f>AVERAGE(D7:H7)</f>
+        <v>37.297639231518637</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="7" t="s">
         <v>16</v>
       </c>
@@ -991,8 +1024,12 @@
       <c r="H8" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L8" s="39">
+        <f>SUM(L5:L7)</f>
+        <v>99.999877606753955</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="13" customFormat="1">
       <c r="A9" s="12" t="s">
         <v>75</v>
       </c>
@@ -1011,8 +1048,9 @@
       <c r="H9" s="21">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L9" s="38"/>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1034,8 +1072,12 @@
       <c r="H10" s="5">
         <v>1.1302894826495564</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L10" s="40">
+        <f>AVERAGE(C10:H10)</f>
+        <v>0.70721865111530224</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
         <v>66</v>
       </c>
@@ -1056,7 +1098,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
         <v>77</v>
       </c>
@@ -1071,8 +1113,12 @@
       <c r="H12">
         <v>58</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L12" s="41">
+        <f>AVERAGE(D12:H12)</f>
+        <v>57.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" t="s">
         <v>78</v>
       </c>
@@ -1087,13 +1133,17 @@
       <c r="H13">
         <v>47</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L13" s="41">
+        <f>AVERAGE(D13:H13)</f>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12">
       <c r="A15" t="s">
         <v>79</v>
       </c>
@@ -1116,7 +1166,7 @@
         <v>0.93691752264741035</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12">
       <c r="A16" t="s">
         <v>80</v>
       </c>
@@ -1139,7 +1189,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16">
       <c r="A17" t="s">
         <v>81</v>
       </c>
@@ -1162,7 +1212,7 @@
         <v>7.2894214973981533E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16">
       <c r="A18" t="s">
         <v>82</v>
       </c>
@@ -1185,7 +1235,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -1202,7 +1252,7 @@
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16">
       <c r="A21" s="27" t="s">
         <v>72</v>
       </c>
@@ -1214,7 +1264,7 @@
       <c r="G21" s="27"/>
       <c r="H21" s="27"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16">
       <c r="C22" t="s">
         <v>1</v>
       </c>
@@ -1234,7 +1284,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16">
       <c r="A23" s="1" t="s">
         <v>2</v>
       </c>
@@ -1258,7 +1308,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16">
       <c r="A24" s="3" t="s">
         <v>76</v>
       </c>
@@ -1281,8 +1331,11 @@
       <c r="H24" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="P24" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25" s="26" t="s">
         <v>3</v>
       </c>
@@ -1307,8 +1360,19 @@
       <c r="H25" s="11">
         <v>3.5240284140330398</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L25" s="39">
+        <f>AVERAGE(D25:H25)</f>
+        <v>8.9702056270753729</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="P25" s="9">
+        <f>AVERAGE(D5:H5,D25:H25,D45:H45)</f>
+        <v>11.792195054147092</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
       <c r="A26" s="26"/>
       <c r="B26" s="2" t="s">
         <v>13</v>
@@ -1331,8 +1395,19 @@
       <c r="H26" s="11">
         <v>57.293625186596529</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L26" s="39">
+        <f>AVERAGE(D26:H26)</f>
+        <v>50.346989019932053</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P26" s="9">
+        <f>AVERAGE(D6:H6,D26:H26,D46:H46)</f>
+        <v>54.224415265395365</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
       <c r="A27" s="26"/>
       <c r="B27" s="2" t="s">
         <v>12</v>
@@ -1355,8 +1430,19 @@
       <c r="H27" s="11">
         <v>39.182346399370431</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L27" s="39">
+        <f>AVERAGE(D27:H27)</f>
+        <v>38.178708518634764</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P27" s="9">
+        <f>AVERAGE(D7:H7,D27:H27,D47:H47)</f>
+        <v>33.089025670599014</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
       <c r="A28" s="8" t="s">
         <v>16</v>
       </c>
@@ -1377,8 +1463,19 @@
       <c r="H28" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L28" s="39">
+        <f>SUM(L25:L27)</f>
+        <v>97.49590316564219</v>
+      </c>
+      <c r="O28" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="P28" s="9">
+        <f>SUM(P25:P27)</f>
+        <v>99.105635990141465</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
       <c r="A29" s="12" t="s">
         <v>75</v>
       </c>
@@ -1390,7 +1487,7 @@
       <c r="G29" s="9"/>
       <c r="H29" s="9"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16">
       <c r="A30" t="s">
         <v>9</v>
       </c>
@@ -1412,8 +1509,12 @@
       <c r="H30" s="5">
         <v>1.2030797821332966</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L30" s="40">
+        <f>AVERAGE(C30:H30)</f>
+        <v>0.79983784767470167</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
       <c r="A31" t="s">
         <v>66</v>
       </c>
@@ -1440,8 +1541,15 @@
         <f>300/3600</f>
         <v>8.3333333333333329E-2</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O31" t="s">
+        <v>9</v>
+      </c>
+      <c r="P31" s="5">
+        <f>AVERAGE(D10:H10,D30:H30,D50:G50)</f>
+        <v>0.7828404548884117</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
       <c r="A32" t="s">
         <v>77</v>
       </c>
@@ -1456,8 +1564,19 @@
       <c r="H32" s="25">
         <v>58</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L32" s="41">
+        <f>AVERAGE(D32:H32)</f>
+        <v>57.5</v>
+      </c>
+      <c r="O32" t="s">
+        <v>77</v>
+      </c>
+      <c r="P32" s="10">
+        <f>AVERAGE(D12:H12,D32:H32,D52:G52)</f>
+        <v>52.75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
       <c r="A33" t="s">
         <v>78</v>
       </c>
@@ -1472,13 +1591,24 @@
       <c r="H33" s="25">
         <v>47</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L33" s="41">
+        <f>AVERAGE(D33:H33)</f>
+        <v>46</v>
+      </c>
+      <c r="O33" t="s">
+        <v>78</v>
+      </c>
+      <c r="P33" s="10">
+        <f>AVERAGE(D13:H13,D33:H33,D53:G53)</f>
+        <v>34.25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
       <c r="A34" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16">
       <c r="A35" t="s">
         <v>79</v>
       </c>
@@ -1501,7 +1631,7 @@
         <v>1.148647539081959</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16">
       <c r="A36" t="s">
         <v>80</v>
       </c>
@@ -1524,7 +1654,7 @@
         <v>1.0999999999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16">
       <c r="A37" t="s">
         <v>81</v>
       </c>
@@ -1547,7 +1677,7 @@
         <v>9.7338843545470441E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16">
       <c r="A38" t="s">
         <v>82</v>
       </c>
@@ -1570,7 +1700,7 @@
         <v>9.3333333333333324E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16">
       <c r="A39" t="s">
         <v>0</v>
       </c>
@@ -1587,7 +1717,7 @@
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16">
       <c r="A41" s="27" t="s">
         <v>73</v>
       </c>
@@ -1599,7 +1729,7 @@
       <c r="G41" s="27"/>
       <c r="H41" s="27"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16">
       <c r="C42" t="s">
         <v>1</v>
       </c>
@@ -1619,7 +1749,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16">
       <c r="A43" s="1" t="s">
         <v>2</v>
       </c>
@@ -1641,7 +1771,7 @@
       </c>
       <c r="H43" s="1"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16">
       <c r="A44" s="3" t="s">
         <v>76</v>
       </c>
@@ -1663,7 +1793,7 @@
       </c>
       <c r="H44" s="3"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16">
       <c r="A45" s="26" t="s">
         <v>3</v>
       </c>
@@ -1686,8 +1816,12 @@
         <v>19.51210597781089</v>
       </c>
       <c r="H45" s="2"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L45" s="39">
+        <f>AVERAGE(D45:G45)</f>
+        <v>26.410171723387919</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16">
       <c r="A46" s="26"/>
       <c r="B46" s="2" t="s">
         <v>13</v>
@@ -1708,8 +1842,12 @@
         <v>53.706795996025832</v>
       </c>
       <c r="H46" s="2"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L46" s="39">
+        <f>AVERAGE(D46:G46)</f>
+        <v>52.123673117207275</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16">
       <c r="A47" s="26"/>
       <c r="B47" s="2" t="s">
         <v>12</v>
@@ -1730,8 +1868,12 @@
         <v>26.781098026163278</v>
       </c>
       <c r="H47" s="2"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L47" s="39">
+        <f>AVERAGE(D47:G47)</f>
+        <v>21.466155159404806</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16">
       <c r="A48" s="8" t="s">
         <v>16</v>
       </c>
@@ -1750,8 +1892,12 @@
         <v>64</v>
       </c>
       <c r="H48" s="2"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L48" s="39">
+        <f>SUM(L45:L47)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
       <c r="A49" s="12" t="s">
         <v>75</v>
       </c>
@@ -1769,7 +1915,7 @@
       <c r="G49" s="10"/>
       <c r="H49" s="13"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12">
       <c r="A50" t="s">
         <v>9</v>
       </c>
@@ -1789,7 +1935,7 @@
         <v>0.82143229002582208</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12">
       <c r="A51" t="s">
         <v>66</v>
       </c>
@@ -1806,7 +1952,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12">
       <c r="A52" t="s">
         <v>77</v>
       </c>
@@ -1822,8 +1968,12 @@
       <c r="G52" s="9">
         <v>40</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L52" s="39">
+        <f>AVERAGE(D52:G52)</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
       <c r="A53" t="s">
         <v>78</v>
       </c>
@@ -1839,13 +1989,17 @@
       <c r="G53" s="9">
         <v>22</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L53" s="39">
+        <f>AVERAGE(D53:G53)</f>
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
       <c r="A54" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12">
       <c r="A55" t="s">
         <v>79</v>
       </c>
@@ -1865,7 +2019,7 @@
         <v>4.0208926228858202</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12">
       <c r="A56" t="s">
         <v>80</v>
       </c>
@@ -1885,7 +2039,7 @@
         <v>3.7666666666666671</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12">
       <c r="A57" t="s">
         <v>81</v>
       </c>
@@ -1906,7 +2060,7 @@
       </c>
       <c r="H57" s="6"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12">
       <c r="A58" t="s">
         <v>82</v>
       </c>
@@ -1927,7 +2081,7 @@
       </c>
       <c r="H58" s="6"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12">
       <c r="A59" t="s">
         <v>0</v>
       </c>
@@ -1966,26 +2120,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q105"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="11" max="11" width="7.5703125" customWidth="1"/>
     <col min="12" max="12" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17">
       <c r="A1" s="10"/>
       <c r="C1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17">
       <c r="A2" s="10" t="s">
         <v>18</v>
       </c>
@@ -2032,7 +2186,7 @@
         <v>36.319580047798226</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17">
       <c r="A3" s="5" t="s">
         <v>24</v>
       </c>
@@ -2079,7 +2233,7 @@
         <v>35.683101859181114</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17">
       <c r="A4" s="5"/>
       <c r="B4" t="s">
         <v>26</v>
@@ -2124,7 +2278,7 @@
         <v>34.513836574316166</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17">
       <c r="A5" s="6"/>
       <c r="B5" t="s">
         <v>27</v>
@@ -2169,7 +2323,7 @@
         <v>37.073866888622874</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -2213,7 +2367,7 @@
         <v>42.897810787674786</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -2233,7 +2387,7 @@
         <v>41.851767881430831</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17">
       <c r="B8" t="s">
         <v>26</v>
       </c>
@@ -2277,7 +2431,7 @@
         <v>37.635510324449541</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17">
       <c r="B9" t="s">
         <v>27</v>
       </c>
@@ -2321,7 +2475,7 @@
         <v>47.09176825980591</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -2365,7 +2519,7 @@
         <v>42.010883940715416</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -2412,7 +2566,7 @@
         <v>24.973033668832521</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17">
       <c r="B12" t="s">
         <v>26</v>
       </c>
@@ -2456,7 +2610,7 @@
         <v>39.182346399370431</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17">
       <c r="B13" t="s">
         <v>27</v>
       </c>
@@ -2473,7 +2627,7 @@
         <v>38.507733777245754</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -2490,7 +2644,7 @@
         <v>34.084602647172851</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -2510,7 +2664,7 @@
         <v>39.182346399370431</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17">
       <c r="B16" t="s">
         <v>27</v>
       </c>
@@ -2554,7 +2708,7 @@
         <v>20.244565459188088</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -2598,7 +2752,7 @@
         <v>19.995924094391068</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -2645,7 +2799,7 @@
         <v>18.843033057876788</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17">
       <c r="B19" t="s">
         <v>26</v>
       </c>
@@ -2689,7 +2843,7 @@
         <v>26.781098026163278</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17">
       <c r="B20" t="s">
         <v>27</v>
       </c>
@@ -2706,7 +2860,7 @@
         <v>37.866203718362229</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17">
       <c r="A21" t="s">
         <v>36</v>
       </c>
@@ -2723,7 +2877,7 @@
         <v>38.25558477568633</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17">
       <c r="A22" t="s">
         <v>37</v>
       </c>
@@ -2740,7 +2894,7 @@
         <v>37.354535488773735</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17">
       <c r="A25" s="34" t="s">
         <v>50</v>
       </c>
@@ -2750,7 +2904,7 @@
       <c r="E25" s="34"/>
       <c r="F25" s="34"/>
     </row>
-    <row r="26" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" ht="15.75" thickBot="1">
       <c r="H26" t="s">
         <v>24</v>
       </c>
@@ -2770,7 +2924,7 @@
         <v>34.299999999999997</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" ht="15.75" thickBot="1">
       <c r="A27" s="15"/>
       <c r="B27" s="35" t="s">
         <v>38</v>
@@ -2798,7 +2952,7 @@
         <v>33.5</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" ht="15.75" thickBot="1">
       <c r="A28" s="16"/>
       <c r="B28" s="17" t="s">
         <v>39</v>
@@ -2834,7 +2988,7 @@
         <v>32.200000000000003</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" ht="15.75" thickBot="1">
       <c r="A29" s="16" t="s">
         <v>44</v>
       </c>
@@ -2872,7 +3026,7 @@
         <v>35.64</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" ht="15.75" thickBot="1">
       <c r="A30" s="16" t="s">
         <v>45</v>
       </c>
@@ -2904,7 +3058,7 @@
       <c r="L30" s="31"/>
       <c r="M30" s="31"/>
     </row>
-    <row r="31" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" ht="15.75" thickBot="1">
       <c r="A31" s="16" t="s">
         <v>47</v>
       </c>
@@ -2924,7 +3078,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" ht="15.75" thickBot="1">
       <c r="H32" t="s">
         <v>24</v>
       </c>
@@ -2944,7 +3098,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" ht="15.75" thickBot="1">
       <c r="A33" s="15"/>
       <c r="B33" s="35" t="s">
         <v>48</v>
@@ -2973,7 +3127,7 @@
         <v>45.8</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" ht="15.75" thickBot="1">
       <c r="A34" s="19"/>
       <c r="B34" s="20" t="s">
         <v>39</v>
@@ -3010,7 +3164,7 @@
         <v>42.17</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" ht="15.75" thickBot="1">
       <c r="A35" s="16" t="s">
         <v>44</v>
       </c>
@@ -3049,7 +3203,7 @@
         <v>23.83</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" ht="15.75" thickBot="1">
       <c r="A36" s="16" t="s">
         <v>45</v>
       </c>
@@ -3081,7 +3235,7 @@
       <c r="L36" s="31"/>
       <c r="M36" s="31"/>
     </row>
-    <row r="37" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" ht="15.75" thickBot="1">
       <c r="A37" s="16" t="s">
         <v>47</v>
       </c>
@@ -3102,7 +3256,7 @@
       </c>
       <c r="G37" s="9"/>
     </row>
-    <row r="38" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" ht="15.75" thickBot="1">
       <c r="F38" s="6"/>
       <c r="G38" s="9"/>
       <c r="H38" t="s">
@@ -3124,7 +3278,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" ht="15.75" thickBot="1">
       <c r="A39" s="15"/>
       <c r="B39" s="35" t="s">
         <v>49</v>
@@ -3153,7 +3307,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" ht="15.75" thickBot="1">
       <c r="A40" s="16"/>
       <c r="B40" s="17" t="s">
         <v>39</v>
@@ -3189,7 +3343,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" ht="15.75" thickBot="1">
       <c r="A41" s="16" t="s">
         <v>44</v>
       </c>
@@ -3228,7 +3382,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" ht="15.75" thickBot="1">
       <c r="A42" s="16" t="s">
         <v>45</v>
       </c>
@@ -3249,7 +3403,7 @@
       </c>
       <c r="G42" s="9"/>
     </row>
-    <row r="43" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" ht="15.75" thickBot="1">
       <c r="A43" s="16" t="s">
         <v>47</v>
       </c>
@@ -3270,7 +3424,7 @@
       </c>
       <c r="G43" s="9"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13">
       <c r="A45" s="34" t="s">
         <v>52</v>
       </c>
@@ -3280,11 +3434,11 @@
       <c r="E45" s="34"/>
       <c r="F45" s="34"/>
     </row>
-    <row r="46" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" ht="15.75" thickBot="1">
       <c r="F46" s="6"/>
       <c r="G46" s="9"/>
     </row>
-    <row r="47" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" ht="15.75" thickBot="1">
       <c r="A47" s="15"/>
       <c r="B47" s="35" t="s">
         <v>51</v>
@@ -3295,7 +3449,7 @@
       <c r="F47" s="37"/>
       <c r="G47" s="9"/>
     </row>
-    <row r="48" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" ht="15.75" thickBot="1">
       <c r="A48" s="16"/>
       <c r="B48" s="17" t="s">
         <v>39</v>
@@ -3314,7 +3468,7 @@
       </c>
       <c r="G48" s="9"/>
     </row>
-    <row r="49" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" ht="15.75" thickBot="1">
       <c r="A49" s="16" t="s">
         <v>44</v>
       </c>
@@ -3334,7 +3488,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" ht="15.75" thickBot="1">
       <c r="A50" s="16" t="s">
         <v>45</v>
       </c>
@@ -3354,7 +3508,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" ht="15.75" thickBot="1">
       <c r="A51" s="16" t="s">
         <v>47</v>
       </c>
@@ -3374,8 +3528,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="53" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" ht="15.75" thickBot="1"/>
+    <row r="53" spans="1:6" ht="15.75" thickBot="1">
       <c r="A53" s="15"/>
       <c r="B53" s="35" t="s">
         <v>53</v>
@@ -3385,7 +3539,7 @@
       <c r="E53" s="36"/>
       <c r="F53" s="37"/>
     </row>
-    <row r="54" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" ht="15.75" thickBot="1">
       <c r="A54" s="16"/>
       <c r="B54" s="17" t="s">
         <v>39</v>
@@ -3403,7 +3557,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" ht="15.75" thickBot="1">
       <c r="A55" s="16" t="s">
         <v>44</v>
       </c>
@@ -3423,7 +3577,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" ht="15.75" thickBot="1">
       <c r="A56" s="16" t="s">
         <v>45</v>
       </c>
@@ -3443,7 +3597,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" ht="15.75" thickBot="1">
       <c r="A57" s="16" t="s">
         <v>47</v>
       </c>
@@ -3463,8 +3617,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="59" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" ht="15.75" thickBot="1"/>
+    <row r="59" spans="1:6" ht="15.75" thickBot="1">
       <c r="A59" s="15"/>
       <c r="B59" s="35" t="s">
         <v>54</v>
@@ -3474,7 +3628,7 @@
       <c r="E59" s="36"/>
       <c r="F59" s="37"/>
     </row>
-    <row r="60" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" ht="15.75" thickBot="1">
       <c r="A60" s="16"/>
       <c r="B60" s="17" t="s">
         <v>39</v>
@@ -3492,7 +3646,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" ht="15.75" thickBot="1">
       <c r="A61" s="16" t="s">
         <v>44</v>
       </c>
@@ -3512,7 +3666,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" ht="15.75" thickBot="1">
       <c r="A62" s="16" t="s">
         <v>45</v>
       </c>
@@ -3532,7 +3686,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" ht="15.75" thickBot="1">
       <c r="A63" s="16" t="s">
         <v>47</v>
       </c>
@@ -3552,7 +3706,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6">
       <c r="A65" s="34" t="s">
         <v>55</v>
       </c>
@@ -3562,8 +3716,8 @@
       <c r="E65" s="34"/>
       <c r="F65" s="34"/>
     </row>
-    <row r="66" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="67" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" ht="15.75" thickBot="1"/>
+    <row r="67" spans="1:6" ht="15.75" thickBot="1">
       <c r="A67" s="15"/>
       <c r="B67" s="35" t="s">
         <v>56</v>
@@ -3573,7 +3727,7 @@
       <c r="E67" s="36"/>
       <c r="F67" s="37"/>
     </row>
-    <row r="68" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" ht="15.75" thickBot="1">
       <c r="A68" s="16"/>
       <c r="B68" s="17" t="s">
         <v>39</v>
@@ -3591,7 +3745,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" ht="15.75" thickBot="1">
       <c r="A69" s="16" t="s">
         <v>44</v>
       </c>
@@ -3611,7 +3765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" ht="15.75" thickBot="1">
       <c r="A70" s="16" t="s">
         <v>45</v>
       </c>
@@ -3631,7 +3785,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" ht="15.75" thickBot="1">
       <c r="A71" s="16" t="s">
         <v>47</v>
       </c>
@@ -3651,8 +3805,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="73" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" ht="15.75" thickBot="1"/>
+    <row r="73" spans="1:6" ht="15.75" thickBot="1">
       <c r="A73" s="15"/>
       <c r="B73" s="35" t="s">
         <v>57</v>
@@ -3662,7 +3816,7 @@
       <c r="E73" s="36"/>
       <c r="F73" s="37"/>
     </row>
-    <row r="74" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" ht="15.75" thickBot="1">
       <c r="A74" s="16"/>
       <c r="B74" s="17" t="s">
         <v>39</v>
@@ -3680,7 +3834,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" ht="15.75" thickBot="1">
       <c r="A75" s="16" t="s">
         <v>44</v>
       </c>
@@ -3700,7 +3854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" ht="15.75" thickBot="1">
       <c r="A76" s="16" t="s">
         <v>45</v>
       </c>
@@ -3720,7 +3874,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" ht="15.75" thickBot="1">
       <c r="A77" s="16" t="s">
         <v>47</v>
       </c>
@@ -3740,8 +3894,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="79" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" ht="15.75" thickBot="1"/>
+    <row r="79" spans="1:6" ht="15.75" thickBot="1">
       <c r="A79" s="15"/>
       <c r="B79" s="35" t="s">
         <v>58</v>
@@ -3751,7 +3905,7 @@
       <c r="E79" s="36"/>
       <c r="F79" s="37"/>
     </row>
-    <row r="80" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" ht="15.75" thickBot="1">
       <c r="A80" s="16"/>
       <c r="B80" s="17" t="s">
         <v>39</v>
@@ -3769,7 +3923,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" ht="15.75" thickBot="1">
       <c r="A81" s="16" t="s">
         <v>44</v>
       </c>
@@ -3789,7 +3943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" ht="15.75" thickBot="1">
       <c r="A82" s="16" t="s">
         <v>45</v>
       </c>
@@ -3809,7 +3963,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" ht="15.75" thickBot="1">
       <c r="A83" s="16" t="s">
         <v>47</v>
       </c>
@@ -3829,7 +3983,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6">
       <c r="A85" s="34" t="s">
         <v>59</v>
       </c>
@@ -3839,8 +3993,8 @@
       <c r="E85" s="34"/>
       <c r="F85" s="34"/>
     </row>
-    <row r="86" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="87" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" ht="15.75" thickBot="1"/>
+    <row r="87" spans="1:6" ht="15.75" thickBot="1">
       <c r="A87" s="15"/>
       <c r="B87" s="35" t="s">
         <v>60</v>
@@ -3850,7 +4004,7 @@
       <c r="E87" s="36"/>
       <c r="F87" s="37"/>
     </row>
-    <row r="88" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" ht="15.75" thickBot="1">
       <c r="A88" s="16"/>
       <c r="B88" s="17" t="s">
         <v>39</v>
@@ -3868,7 +4022,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" ht="15.75" thickBot="1">
       <c r="A89" s="16" t="s">
         <v>44</v>
       </c>
@@ -3888,7 +4042,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" ht="15.75" thickBot="1">
       <c r="A90" s="16" t="s">
         <v>45</v>
       </c>
@@ -3908,7 +4062,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" ht="15.75" thickBot="1">
       <c r="A91" s="16" t="s">
         <v>47</v>
       </c>
@@ -3928,8 +4082,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="93" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" ht="15.75" thickBot="1"/>
+    <row r="93" spans="1:6" ht="15.75" thickBot="1">
       <c r="A93" s="15"/>
       <c r="B93" s="35" t="s">
         <v>61</v>
@@ -3939,7 +4093,7 @@
       <c r="E93" s="36"/>
       <c r="F93" s="37"/>
     </row>
-    <row r="94" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" ht="15.75" thickBot="1">
       <c r="A94" s="16"/>
       <c r="B94" s="17" t="s">
         <v>39</v>
@@ -3957,7 +4111,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" ht="15.75" thickBot="1">
       <c r="A95" s="16" t="s">
         <v>44</v>
       </c>
@@ -3977,7 +4131,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" ht="15.75" thickBot="1">
       <c r="A96" s="16" t="s">
         <v>45</v>
       </c>
@@ -3997,7 +4151,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" ht="15.75" thickBot="1">
       <c r="A97" s="16" t="s">
         <v>47</v>
       </c>
@@ -4017,8 +4171,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="99" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" ht="15.75" thickBot="1"/>
+    <row r="99" spans="1:6" ht="15.75" thickBot="1">
       <c r="A99" s="15"/>
       <c r="B99" s="35" t="s">
         <v>62</v>
@@ -4028,7 +4182,7 @@
       <c r="E99" s="36"/>
       <c r="F99" s="37"/>
     </row>
-    <row r="100" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" ht="15.75" thickBot="1">
       <c r="A100" s="16"/>
       <c r="B100" s="17" t="s">
         <v>39</v>
@@ -4046,7 +4200,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" ht="15.75" thickBot="1">
       <c r="A101" s="16" t="s">
         <v>44</v>
       </c>
@@ -4066,7 +4220,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" ht="15.75" thickBot="1">
       <c r="A102" s="16" t="s">
         <v>45</v>
       </c>
@@ -4086,7 +4240,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" ht="15.75" thickBot="1">
       <c r="A103" s="16" t="s">
         <v>47</v>
       </c>
@@ -4106,7 +4260,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6">
       <c r="A105" s="34"/>
       <c r="B105" s="34"/>
       <c r="C105" s="34"/>
@@ -4116,11 +4270,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A85:F85"/>
-    <mergeCell ref="B87:F87"/>
-    <mergeCell ref="B93:F93"/>
-    <mergeCell ref="B99:F99"/>
-    <mergeCell ref="A105:F105"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="B47:F47"/>
+    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="B67:F67"/>
+    <mergeCell ref="B73:F73"/>
     <mergeCell ref="B79:F79"/>
     <mergeCell ref="B27:F27"/>
     <mergeCell ref="B33:F33"/>
@@ -4130,23 +4284,23 @@
     <mergeCell ref="B53:F53"/>
     <mergeCell ref="B59:F59"/>
     <mergeCell ref="A65:F65"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="B47:F47"/>
-    <mergeCell ref="A45:F45"/>
-    <mergeCell ref="B67:F67"/>
-    <mergeCell ref="B73:F73"/>
+    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="B87:F87"/>
+    <mergeCell ref="B93:F93"/>
+    <mergeCell ref="B99:F99"/>
+    <mergeCell ref="A105:F105"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/software/3D-CMCC-Forest-Model/input/AUZobelboden/doc/IP1_Soil.xlsx
+++ b/software/3D-CMCC-Forest-Model/input/AUZobelboden/doc/IP1_Soil.xlsx
@@ -15,8 +15,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Alessio</author>
+  </authors>
+  <commentList>
+    <comment ref="M25" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Alessio:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+poiché la somma non è 100 aggiundo a ciascuno +1</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="84">
   <si>
     <t xml:space="preserve">pH </t>
   </si>
@@ -268,12 +302,6 @@
   </si>
   <si>
     <t>Alessio</t>
-  </si>
-  <si>
-    <t>media su tutti</t>
-  </si>
-  <si>
-    <t>tot</t>
   </si>
 </sst>
 </file>
@@ -284,7 +312,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -312,6 +340,19 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -477,6 +518,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -513,10 +558,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -819,7 +860,7 @@
   <dimension ref="A1:P59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="J50" sqref="J50"/>
+      <selection activeCell="L50" sqref="L50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -831,21 +872,21 @@
     <col min="5" max="5" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="25.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" style="38"/>
+    <col min="12" max="12" width="11.42578125" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="L1" s="38" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="L1" s="26" t="s">
         <v>83</v>
       </c>
     </row>
@@ -918,7 +959,7 @@
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="30" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -942,13 +983,13 @@
       <c r="H5" s="11">
         <v>2.2569256072745909</v>
       </c>
-      <c r="L5" s="39">
+      <c r="L5" s="27">
         <f>AVERAGE(D5:H5)</f>
         <v>2.919803145826152</v>
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="26"/>
+      <c r="A6" s="30"/>
       <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
@@ -970,13 +1011,13 @@
       <c r="H6" s="11">
         <v>54.845263605050626</v>
       </c>
-      <c r="L6" s="39">
+      <c r="L6" s="27">
         <f>AVERAGE(D6:H6)</f>
         <v>59.78243522940916</v>
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="26"/>
+      <c r="A7" s="30"/>
       <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
@@ -998,7 +1039,7 @@
       <c r="H7" s="11">
         <v>42.897810787674786</v>
       </c>
-      <c r="L7" s="39">
+      <c r="L7" s="27">
         <f>AVERAGE(D7:H7)</f>
         <v>37.297639231518637</v>
       </c>
@@ -1024,7 +1065,7 @@
       <c r="H8" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="L8" s="39">
+      <c r="L8" s="27">
         <f>SUM(L5:L7)</f>
         <v>99.999877606753955</v>
       </c>
@@ -1048,7 +1089,7 @@
       <c r="H9" s="21">
         <v>0</v>
       </c>
-      <c r="L9" s="38"/>
+      <c r="L9" s="26"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
@@ -1072,9 +1113,9 @@
       <c r="H10" s="5">
         <v>1.1302894826495564</v>
       </c>
-      <c r="L10" s="40">
-        <f>AVERAGE(C10:H10)</f>
-        <v>0.70721865111530224</v>
+      <c r="L10" s="28">
+        <f>AVERAGE(D10:H10)</f>
+        <v>0.82783810010379477</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1102,18 +1143,18 @@
       <c r="A12" t="s">
         <v>77</v>
       </c>
-      <c r="D12" s="28" t="s">
+      <c r="D12" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="E12" s="29"/>
-      <c r="F12" s="33">
+      <c r="E12" s="33"/>
+      <c r="F12" s="37">
         <v>57</v>
       </c>
-      <c r="G12" s="33"/>
+      <c r="G12" s="37"/>
       <c r="H12">
         <v>58</v>
       </c>
-      <c r="L12" s="41">
+      <c r="L12" s="29">
         <f>AVERAGE(D12:H12)</f>
         <v>57.5</v>
       </c>
@@ -1122,18 +1163,18 @@
       <c r="A13" t="s">
         <v>78</v>
       </c>
-      <c r="D13" s="30" t="s">
+      <c r="D13" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="E13" s="31"/>
-      <c r="F13" s="32">
+      <c r="E13" s="35"/>
+      <c r="F13" s="36">
         <v>45</v>
       </c>
-      <c r="G13" s="32"/>
+      <c r="G13" s="36"/>
       <c r="H13">
         <v>47</v>
       </c>
-      <c r="L13" s="41">
+      <c r="L13" s="29">
         <f>AVERAGE(D13:H13)</f>
         <v>46</v>
       </c>
@@ -1253,16 +1294,16 @@
       <c r="H19" s="6"/>
     </row>
     <row r="21" spans="1:16">
-      <c r="A21" s="27" t="s">
+      <c r="A21" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
     </row>
     <row r="22" spans="1:16">
       <c r="C22" t="s">
@@ -1331,12 +1372,9 @@
       <c r="H24" s="3">
         <v>20</v>
       </c>
-      <c r="P24" t="s">
-        <v>84</v>
-      </c>
     </row>
     <row r="25" spans="1:16">
-      <c r="A25" s="26" t="s">
+      <c r="A25" s="30" t="s">
         <v>3</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -1360,20 +1398,18 @@
       <c r="H25" s="11">
         <v>3.5240284140330398</v>
       </c>
-      <c r="L25" s="39">
+      <c r="L25" s="27">
         <f>AVERAGE(D25:H25)</f>
         <v>8.9702056270753729</v>
       </c>
-      <c r="O25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="P25" s="9">
-        <f>AVERAGE(D5:H5,D25:H25,D45:H45)</f>
-        <v>11.792195054147092</v>
-      </c>
+      <c r="M25">
+        <v>10</v>
+      </c>
+      <c r="O25" s="2"/>
+      <c r="P25" s="9"/>
     </row>
     <row r="26" spans="1:16">
-      <c r="A26" s="26"/>
+      <c r="A26" s="30"/>
       <c r="B26" s="2" t="s">
         <v>13</v>
       </c>
@@ -1395,20 +1431,18 @@
       <c r="H26" s="11">
         <v>57.293625186596529</v>
       </c>
-      <c r="L26" s="39">
+      <c r="L26" s="27">
         <f>AVERAGE(D26:H26)</f>
         <v>50.346989019932053</v>
       </c>
-      <c r="O26" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="P26" s="9">
-        <f>AVERAGE(D6:H6,D26:H26,D46:H46)</f>
-        <v>54.224415265395365</v>
-      </c>
+      <c r="M26">
+        <v>51</v>
+      </c>
+      <c r="O26" s="2"/>
+      <c r="P26" s="9"/>
     </row>
     <row r="27" spans="1:16">
-      <c r="A27" s="26"/>
+      <c r="A27" s="30"/>
       <c r="B27" s="2" t="s">
         <v>12</v>
       </c>
@@ -1430,17 +1464,15 @@
       <c r="H27" s="11">
         <v>39.182346399370431</v>
       </c>
-      <c r="L27" s="39">
+      <c r="L27" s="27">
         <f>AVERAGE(D27:H27)</f>
         <v>38.178708518634764</v>
       </c>
-      <c r="O27" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="P27" s="9">
-        <f>AVERAGE(D7:H7,D27:H27,D47:H47)</f>
-        <v>33.089025670599014</v>
-      </c>
+      <c r="M27">
+        <v>39</v>
+      </c>
+      <c r="O27" s="2"/>
+      <c r="P27" s="9"/>
     </row>
     <row r="28" spans="1:16">
       <c r="A28" s="8" t="s">
@@ -1463,17 +1495,16 @@
       <c r="H28" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="L28" s="39">
+      <c r="L28" s="27">
         <f>SUM(L25:L27)</f>
         <v>97.49590316564219</v>
       </c>
-      <c r="O28" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="P28" s="9">
-        <f>SUM(P25:P27)</f>
-        <v>99.105635990141465</v>
-      </c>
+      <c r="M28" s="27">
+        <f>SUM(M25:M27)</f>
+        <v>100</v>
+      </c>
+      <c r="O28" s="2"/>
+      <c r="P28" s="9"/>
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="12" t="s">
@@ -1509,9 +1540,9 @@
       <c r="H30" s="5">
         <v>1.2030797821332966</v>
       </c>
-      <c r="L30" s="40">
-        <f>AVERAGE(C30:H30)</f>
-        <v>0.79983784767470167</v>
+      <c r="L30" s="28">
+        <f>AVERAGE(D30:H30)</f>
+        <v>0.9442731936911235</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -1541,67 +1572,49 @@
         <f>300/3600</f>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="O31" t="s">
-        <v>9</v>
-      </c>
-      <c r="P31" s="5">
-        <f>AVERAGE(D10:H10,D30:H30,D50:G50)</f>
-        <v>0.7828404548884117</v>
-      </c>
+      <c r="P31" s="5"/>
     </row>
     <row r="32" spans="1:16">
       <c r="A32" t="s">
         <v>77</v>
       </c>
-      <c r="D32" s="28" t="s">
+      <c r="D32" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="E32" s="29"/>
-      <c r="F32" s="33">
+      <c r="E32" s="33"/>
+      <c r="F32" s="37">
         <v>57</v>
       </c>
-      <c r="G32" s="33"/>
+      <c r="G32" s="37"/>
       <c r="H32" s="25">
         <v>58</v>
       </c>
-      <c r="L32" s="41">
+      <c r="L32" s="29">
         <f>AVERAGE(D32:H32)</f>
         <v>57.5</v>
       </c>
-      <c r="O32" t="s">
-        <v>77</v>
-      </c>
-      <c r="P32" s="10">
-        <f>AVERAGE(D12:H12,D32:H32,D52:G52)</f>
-        <v>52.75</v>
-      </c>
+      <c r="P32" s="10"/>
     </row>
     <row r="33" spans="1:16">
       <c r="A33" t="s">
         <v>78</v>
       </c>
-      <c r="D33" s="30" t="s">
+      <c r="D33" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="E33" s="31"/>
-      <c r="F33" s="32">
+      <c r="E33" s="35"/>
+      <c r="F33" s="36">
         <v>45</v>
       </c>
-      <c r="G33" s="32"/>
+      <c r="G33" s="36"/>
       <c r="H33" s="25">
         <v>47</v>
       </c>
-      <c r="L33" s="41">
+      <c r="L33" s="29">
         <f>AVERAGE(D33:H33)</f>
         <v>46</v>
       </c>
-      <c r="O33" t="s">
-        <v>78</v>
-      </c>
-      <c r="P33" s="10">
-        <f>AVERAGE(D13:H13,D33:H33,D53:G53)</f>
-        <v>34.25</v>
-      </c>
+      <c r="P33" s="10"/>
     </row>
     <row r="34" spans="1:16">
       <c r="A34" t="s">
@@ -1718,16 +1731,16 @@
       <c r="H39" s="6"/>
     </row>
     <row r="41" spans="1:16">
-      <c r="A41" s="27" t="s">
+      <c r="A41" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="B41" s="27"/>
-      <c r="C41" s="27"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="27"/>
-      <c r="G41" s="27"/>
-      <c r="H41" s="27"/>
+      <c r="B41" s="31"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="31"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="31"/>
+      <c r="H41" s="31"/>
     </row>
     <row r="42" spans="1:16">
       <c r="C42" t="s">
@@ -1794,7 +1807,7 @@
       <c r="H44" s="3"/>
     </row>
     <row r="45" spans="1:16">
-      <c r="A45" s="26" t="s">
+      <c r="A45" s="30" t="s">
         <v>3</v>
       </c>
       <c r="B45" s="2" t="s">
@@ -1816,13 +1829,13 @@
         <v>19.51210597781089</v>
       </c>
       <c r="H45" s="2"/>
-      <c r="L45" s="39">
+      <c r="L45" s="27">
         <f>AVERAGE(D45:G45)</f>
         <v>26.410171723387919</v>
       </c>
     </row>
     <row r="46" spans="1:16">
-      <c r="A46" s="26"/>
+      <c r="A46" s="30"/>
       <c r="B46" s="2" t="s">
         <v>13</v>
       </c>
@@ -1842,13 +1855,13 @@
         <v>53.706795996025832</v>
       </c>
       <c r="H46" s="2"/>
-      <c r="L46" s="39">
+      <c r="L46" s="27">
         <f>AVERAGE(D46:G46)</f>
         <v>52.123673117207275</v>
       </c>
     </row>
     <row r="47" spans="1:16">
-      <c r="A47" s="26"/>
+      <c r="A47" s="30"/>
       <c r="B47" s="2" t="s">
         <v>12</v>
       </c>
@@ -1868,7 +1881,7 @@
         <v>26.781098026163278</v>
       </c>
       <c r="H47" s="2"/>
-      <c r="L47" s="39">
+      <c r="L47" s="27">
         <f>AVERAGE(D47:G47)</f>
         <v>21.466155159404806</v>
       </c>
@@ -1892,7 +1905,7 @@
         <v>64</v>
       </c>
       <c r="H48" s="2"/>
-      <c r="L48" s="39">
+      <c r="L48" s="27">
         <f>SUM(L45:L47)</f>
         <v>100</v>
       </c>
@@ -1934,6 +1947,10 @@
       <c r="G50" s="5">
         <v>0.82143229002582208</v>
       </c>
+      <c r="L50" s="28">
+        <f>AVERAGE(D50:G50)</f>
+        <v>0.52480247486579301</v>
+      </c>
     </row>
     <row r="51" spans="1:12">
       <c r="A51" t="s">
@@ -1968,7 +1985,7 @@
       <c r="G52" s="9">
         <v>40</v>
       </c>
-      <c r="L52" s="39">
+      <c r="L52" s="27">
         <f>AVERAGE(D52:G52)</f>
         <v>48</v>
       </c>
@@ -1989,7 +2006,7 @@
       <c r="G53" s="9">
         <v>22</v>
       </c>
-      <c r="L53" s="39">
+      <c r="L53" s="27">
         <f>AVERAGE(D53:G53)</f>
         <v>22.5</v>
       </c>
@@ -2116,6 +2133,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2895,14 +2913,14 @@
       </c>
     </row>
     <row r="25" spans="1:17">
-      <c r="A25" s="34" t="s">
+      <c r="A25" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="B25" s="34"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
     </row>
     <row r="26" spans="1:17" ht="15.75" thickBot="1">
       <c r="H26" t="s">
@@ -2926,13 +2944,13 @@
     </row>
     <row r="27" spans="1:17" ht="15.75" thickBot="1">
       <c r="A27" s="15"/>
-      <c r="B27" s="35" t="s">
+      <c r="B27" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="37"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="41"/>
       <c r="H27" t="s">
         <v>35</v>
       </c>
@@ -3051,12 +3069,12 @@
       <c r="I30" t="s">
         <v>27</v>
       </c>
-      <c r="J30" s="31" t="s">
+      <c r="J30" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="K30" s="31"/>
-      <c r="L30" s="31"/>
-      <c r="M30" s="31"/>
+      <c r="K30" s="35"/>
+      <c r="L30" s="35"/>
+      <c r="M30" s="35"/>
     </row>
     <row r="31" spans="1:17" ht="15.75" thickBot="1">
       <c r="A31" s="16" t="s">
@@ -3100,13 +3118,13 @@
     </row>
     <row r="33" spans="1:13" ht="15.75" thickBot="1">
       <c r="A33" s="15"/>
-      <c r="B33" s="35" t="s">
+      <c r="B33" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="C33" s="36"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="37"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="41"/>
       <c r="G33" s="9"/>
       <c r="H33" t="s">
         <v>35</v>
@@ -3228,12 +3246,12 @@
       <c r="I36" t="s">
         <v>25</v>
       </c>
-      <c r="J36" s="31" t="s">
+      <c r="J36" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="K36" s="31"/>
-      <c r="L36" s="31"/>
-      <c r="M36" s="31"/>
+      <c r="K36" s="35"/>
+      <c r="L36" s="35"/>
+      <c r="M36" s="35"/>
     </row>
     <row r="37" spans="1:13" ht="15.75" thickBot="1">
       <c r="A37" s="16" t="s">
@@ -3280,13 +3298,13 @@
     </row>
     <row r="39" spans="1:13" ht="15.75" thickBot="1">
       <c r="A39" s="15"/>
-      <c r="B39" s="35" t="s">
+      <c r="B39" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="C39" s="36"/>
-      <c r="D39" s="36"/>
-      <c r="E39" s="36"/>
-      <c r="F39" s="37"/>
+      <c r="C39" s="40"/>
+      <c r="D39" s="40"/>
+      <c r="E39" s="40"/>
+      <c r="F39" s="41"/>
       <c r="G39" s="9"/>
       <c r="H39" t="s">
         <v>35</v>
@@ -3425,14 +3443,14 @@
       <c r="G43" s="9"/>
     </row>
     <row r="45" spans="1:13">
-      <c r="A45" s="34" t="s">
+      <c r="A45" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="B45" s="34"/>
-      <c r="C45" s="34"/>
-      <c r="D45" s="34"/>
-      <c r="E45" s="34"/>
-      <c r="F45" s="34"/>
+      <c r="B45" s="38"/>
+      <c r="C45" s="38"/>
+      <c r="D45" s="38"/>
+      <c r="E45" s="38"/>
+      <c r="F45" s="38"/>
     </row>
     <row r="46" spans="1:13" ht="15.75" thickBot="1">
       <c r="F46" s="6"/>
@@ -3440,13 +3458,13 @@
     </row>
     <row r="47" spans="1:13" ht="15.75" thickBot="1">
       <c r="A47" s="15"/>
-      <c r="B47" s="35" t="s">
+      <c r="B47" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="C47" s="36"/>
-      <c r="D47" s="36"/>
-      <c r="E47" s="36"/>
-      <c r="F47" s="37"/>
+      <c r="C47" s="40"/>
+      <c r="D47" s="40"/>
+      <c r="E47" s="40"/>
+      <c r="F47" s="41"/>
       <c r="G47" s="9"/>
     </row>
     <row r="48" spans="1:13" ht="15.75" thickBot="1">
@@ -3531,13 +3549,13 @@
     <row r="52" spans="1:6" ht="15.75" thickBot="1"/>
     <row r="53" spans="1:6" ht="15.75" thickBot="1">
       <c r="A53" s="15"/>
-      <c r="B53" s="35" t="s">
+      <c r="B53" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="C53" s="36"/>
-      <c r="D53" s="36"/>
-      <c r="E53" s="36"/>
-      <c r="F53" s="37"/>
+      <c r="C53" s="40"/>
+      <c r="D53" s="40"/>
+      <c r="E53" s="40"/>
+      <c r="F53" s="41"/>
     </row>
     <row r="54" spans="1:6" ht="15.75" thickBot="1">
       <c r="A54" s="16"/>
@@ -3620,13 +3638,13 @@
     <row r="58" spans="1:6" ht="15.75" thickBot="1"/>
     <row r="59" spans="1:6" ht="15.75" thickBot="1">
       <c r="A59" s="15"/>
-      <c r="B59" s="35" t="s">
+      <c r="B59" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="C59" s="36"/>
-      <c r="D59" s="36"/>
-      <c r="E59" s="36"/>
-      <c r="F59" s="37"/>
+      <c r="C59" s="40"/>
+      <c r="D59" s="40"/>
+      <c r="E59" s="40"/>
+      <c r="F59" s="41"/>
     </row>
     <row r="60" spans="1:6" ht="15.75" thickBot="1">
       <c r="A60" s="16"/>
@@ -3707,25 +3725,25 @@
       </c>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="34" t="s">
+      <c r="A65" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="B65" s="34"/>
-      <c r="C65" s="34"/>
-      <c r="D65" s="34"/>
-      <c r="E65" s="34"/>
-      <c r="F65" s="34"/>
+      <c r="B65" s="38"/>
+      <c r="C65" s="38"/>
+      <c r="D65" s="38"/>
+      <c r="E65" s="38"/>
+      <c r="F65" s="38"/>
     </row>
     <row r="66" spans="1:6" ht="15.75" thickBot="1"/>
     <row r="67" spans="1:6" ht="15.75" thickBot="1">
       <c r="A67" s="15"/>
-      <c r="B67" s="35" t="s">
+      <c r="B67" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="C67" s="36"/>
-      <c r="D67" s="36"/>
-      <c r="E67" s="36"/>
-      <c r="F67" s="37"/>
+      <c r="C67" s="40"/>
+      <c r="D67" s="40"/>
+      <c r="E67" s="40"/>
+      <c r="F67" s="41"/>
     </row>
     <row r="68" spans="1:6" ht="15.75" thickBot="1">
       <c r="A68" s="16"/>
@@ -3808,13 +3826,13 @@
     <row r="72" spans="1:6" ht="15.75" thickBot="1"/>
     <row r="73" spans="1:6" ht="15.75" thickBot="1">
       <c r="A73" s="15"/>
-      <c r="B73" s="35" t="s">
+      <c r="B73" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="C73" s="36"/>
-      <c r="D73" s="36"/>
-      <c r="E73" s="36"/>
-      <c r="F73" s="37"/>
+      <c r="C73" s="40"/>
+      <c r="D73" s="40"/>
+      <c r="E73" s="40"/>
+      <c r="F73" s="41"/>
     </row>
     <row r="74" spans="1:6" ht="15.75" thickBot="1">
       <c r="A74" s="16"/>
@@ -3897,13 +3915,13 @@
     <row r="78" spans="1:6" ht="15.75" thickBot="1"/>
     <row r="79" spans="1:6" ht="15.75" thickBot="1">
       <c r="A79" s="15"/>
-      <c r="B79" s="35" t="s">
+      <c r="B79" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="C79" s="36"/>
-      <c r="D79" s="36"/>
-      <c r="E79" s="36"/>
-      <c r="F79" s="37"/>
+      <c r="C79" s="40"/>
+      <c r="D79" s="40"/>
+      <c r="E79" s="40"/>
+      <c r="F79" s="41"/>
     </row>
     <row r="80" spans="1:6" ht="15.75" thickBot="1">
       <c r="A80" s="16"/>
@@ -3984,25 +4002,25 @@
       </c>
     </row>
     <row r="85" spans="1:6">
-      <c r="A85" s="34" t="s">
+      <c r="A85" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="B85" s="34"/>
-      <c r="C85" s="34"/>
-      <c r="D85" s="34"/>
-      <c r="E85" s="34"/>
-      <c r="F85" s="34"/>
+      <c r="B85" s="38"/>
+      <c r="C85" s="38"/>
+      <c r="D85" s="38"/>
+      <c r="E85" s="38"/>
+      <c r="F85" s="38"/>
     </row>
     <row r="86" spans="1:6" ht="15.75" thickBot="1"/>
     <row r="87" spans="1:6" ht="15.75" thickBot="1">
       <c r="A87" s="15"/>
-      <c r="B87" s="35" t="s">
+      <c r="B87" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="C87" s="36"/>
-      <c r="D87" s="36"/>
-      <c r="E87" s="36"/>
-      <c r="F87" s="37"/>
+      <c r="C87" s="40"/>
+      <c r="D87" s="40"/>
+      <c r="E87" s="40"/>
+      <c r="F87" s="41"/>
     </row>
     <row r="88" spans="1:6" ht="15.75" thickBot="1">
       <c r="A88" s="16"/>
@@ -4085,13 +4103,13 @@
     <row r="92" spans="1:6" ht="15.75" thickBot="1"/>
     <row r="93" spans="1:6" ht="15.75" thickBot="1">
       <c r="A93" s="15"/>
-      <c r="B93" s="35" t="s">
+      <c r="B93" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="C93" s="36"/>
-      <c r="D93" s="36"/>
-      <c r="E93" s="36"/>
-      <c r="F93" s="37"/>
+      <c r="C93" s="40"/>
+      <c r="D93" s="40"/>
+      <c r="E93" s="40"/>
+      <c r="F93" s="41"/>
     </row>
     <row r="94" spans="1:6" ht="15.75" thickBot="1">
       <c r="A94" s="16"/>
@@ -4174,13 +4192,13 @@
     <row r="98" spans="1:6" ht="15.75" thickBot="1"/>
     <row r="99" spans="1:6" ht="15.75" thickBot="1">
       <c r="A99" s="15"/>
-      <c r="B99" s="35" t="s">
+      <c r="B99" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="C99" s="36"/>
-      <c r="D99" s="36"/>
-      <c r="E99" s="36"/>
-      <c r="F99" s="37"/>
+      <c r="C99" s="40"/>
+      <c r="D99" s="40"/>
+      <c r="E99" s="40"/>
+      <c r="F99" s="41"/>
     </row>
     <row r="100" spans="1:6" ht="15.75" thickBot="1">
       <c r="A100" s="16"/>
@@ -4261,20 +4279,20 @@
       </c>
     </row>
     <row r="105" spans="1:6">
-      <c r="A105" s="34"/>
-      <c r="B105" s="34"/>
-      <c r="C105" s="34"/>
-      <c r="D105" s="34"/>
-      <c r="E105" s="34"/>
-      <c r="F105" s="34"/>
+      <c r="A105" s="38"/>
+      <c r="B105" s="38"/>
+      <c r="C105" s="38"/>
+      <c r="D105" s="38"/>
+      <c r="E105" s="38"/>
+      <c r="F105" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="B47:F47"/>
-    <mergeCell ref="A45:F45"/>
-    <mergeCell ref="B67:F67"/>
-    <mergeCell ref="B73:F73"/>
+    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="B87:F87"/>
+    <mergeCell ref="B93:F93"/>
+    <mergeCell ref="B99:F99"/>
+    <mergeCell ref="A105:F105"/>
     <mergeCell ref="B79:F79"/>
     <mergeCell ref="B27:F27"/>
     <mergeCell ref="B33:F33"/>
@@ -4284,11 +4302,11 @@
     <mergeCell ref="B53:F53"/>
     <mergeCell ref="B59:F59"/>
     <mergeCell ref="A65:F65"/>
-    <mergeCell ref="A85:F85"/>
-    <mergeCell ref="B87:F87"/>
-    <mergeCell ref="B93:F93"/>
-    <mergeCell ref="B99:F99"/>
-    <mergeCell ref="A105:F105"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="B47:F47"/>
+    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="B67:F67"/>
+    <mergeCell ref="B73:F73"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
